--- a/data/02_25_2022_summary.xlsx
+++ b/data/02_25_2022_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21987de3918af3ed/Documents/Data Science Notebooks and Code/SBN_Notebooks/sbn_digital_dining_daily_reports/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_496D3B57037C109F6440F437526C663997778217" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C84E28-3A62-4FA7-8E14-EB8B3B4CD218}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_496D3B57037C109F6440F437526C663997778217" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299C8FAD-AA91-41F2-B643-05231E0C874D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,62 +119,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +470,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -536,7 +490,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -554,62 +508,76 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>5.79</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7.75</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.47</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>5.79</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6">
-        <v>7.75</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E6">
-        <v>0.47</v>
+        <v>18.84</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>18.84</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -618,214 +586,196 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>33.549999999999997</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>2.0499999999999998</v>
+        <v>8.73</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>478</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>612</v>
       </c>
       <c r="E10">
-        <v>8.73</v>
+        <v>83.76</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>191.58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="D11">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>83.76</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F11">
-        <v>191.58</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.7799999999999994</v>
+        <v>1.44</v>
       </c>
       <c r="F12">
-        <v>36.700000000000003</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>181.3</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.44</v>
+        <v>11.02</v>
       </c>
       <c r="F13">
-        <v>11.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>181.3</v>
+        <v>182</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="E14">
-        <v>11.02</v>
+        <v>34.5</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>182</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="D15">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>34.5</v>
+        <v>4.83</v>
       </c>
       <c r="F15">
-        <v>107.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>80.569999999999993</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.83</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F16">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>41.3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.2799999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F17">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>41.3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2.5</v>
-      </c>
-      <c r="F18">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
